--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data 2022\00-Imran\00-Imran\Perssonal\Shajra\00-New Github\2\Html &amp; Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data 2022\00-Imran\00-Imran\Perssonal\Shajra\00-New Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD1F4E5-3AFC-450C-999A-CC1EC43C6E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31848CA4-16F2-4AAD-8DFC-23ACD251FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,6 +18,7 @@
     <sheet name="Sheet2" sheetId="28" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Test!$A$1:$E$330</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3966" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="481">
   <si>
     <t>Imam Hussain (AS)</t>
   </si>
@@ -1470,6 +1471,15 @@
   </si>
   <si>
     <t>Syeda Umm Jafat</t>
+  </si>
+  <si>
+    <t>Date &amp; time file saved</t>
+  </si>
+  <si>
+    <t>Syed Asghar Ali - 01</t>
+  </si>
+  <si>
+    <t>Syed Asghar Ali - 02</t>
   </si>
 </sst>
 </file>
@@ -1547,7 +1557,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1584,6 +1594,8 @@
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1805,8 +1817,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4196B8-D149-4ECD-A392-4B507FDB8250}">
   <dimension ref="A1:I335"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A306" workbookViewId="0">
-      <selection activeCell="G328" sqref="G328"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1837,6 +1849,9 @@
       <c r="E1" s="6" t="s">
         <v>196</v>
       </c>
+      <c r="G1" s="14" t="s">
+        <v>478</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A2" s="7">
@@ -1854,6 +1869,10 @@
       <c r="E2" s="7" t="s">
         <v>350</v>
       </c>
+      <c r="G2" s="15">
+        <f ca="1">NOW()</f>
+        <v>46058.850087962965</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" s="7">
@@ -4079,7 +4098,7 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="C133" s="5" t="s">
         <v>81</v>
@@ -7218,7 +7237,7 @@
         <v>315</v>
       </c>
       <c r="B320" t="s">
-        <v>83</v>
+        <v>480</v>
       </c>
       <c r="C320" s="5" t="s">
         <v>215</v>
@@ -7469,6 +7488,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E335" xr:uid="{8C4196B8-D149-4ECD-A392-4B507FDB8250}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E331">
     <sortCondition ref="A2:A331"/>
   </sortState>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data 2022\00-Imran\00-Imran\Perssonal\Shajra\00-New Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31848CA4-16F2-4AAD-8DFC-23ACD251FDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EE41088-99EE-494D-91ED-22EF64A7D023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3967" uniqueCount="485">
   <si>
     <t>Imam Hussain (AS)</t>
   </si>
@@ -1480,6 +1480,18 @@
   </si>
   <si>
     <t>Syed Asghar Ali - 02</t>
+  </si>
+  <si>
+    <t>Syed Muhammad Imran Rizvi</t>
+  </si>
+  <si>
+    <t>Syed Muhammad Kamran Rizvi</t>
+  </si>
+  <si>
+    <t>Syed  Muhammad Adnan Haider</t>
+  </si>
+  <si>
+    <t>Syed Adnan Haider</t>
   </si>
 </sst>
 </file>
@@ -1817,8 +1829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4196B8-D149-4ECD-A392-4B507FDB8250}">
   <dimension ref="A1:I335"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="B230" sqref="B230"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -1871,7 +1883,7 @@
       </c>
       <c r="G2" s="15">
         <f ca="1">NOW()</f>
-        <v>46058.850087962965</v>
+        <v>46063.438856134257</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -5734,7 +5746,7 @@
         <v>227</v>
       </c>
       <c r="B231" s="5" t="s">
-        <v>254</v>
+        <v>484</v>
       </c>
       <c r="C231" s="5" t="s">
         <v>39</v>
@@ -6363,7 +6375,7 @@
         <v>264</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>256</v>
+        <v>481</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>258</v>
@@ -6380,7 +6392,7 @@
         <v>265</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>257</v>
+        <v>482</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>258</v>
@@ -6397,7 +6409,7 @@
         <v>266</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>253</v>
+        <v>483</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>258</v>
@@ -7121,7 +7133,7 @@
         <v>444</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>254</v>
+        <v>484</v>
       </c>
       <c r="D313" s="3" t="s">
         <v>88</v>
@@ -7138,7 +7150,7 @@
         <v>48</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>254</v>
+        <v>484</v>
       </c>
       <c r="D314" s="3" t="s">
         <v>91</v>
@@ -7155,7 +7167,7 @@
         <v>249</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>254</v>
+        <v>484</v>
       </c>
       <c r="D315" s="3" t="s">
         <v>91</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data 2022\00-Imran\00-Imran\Perssonal\Shajra\00-New Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7087A0CD-37CC-4064-947F-C5BE30ECCEA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA8F92-475D-439B-8EA6-5245AD1471C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1554,7 +1554,7 @@
     <t>Hazrat Abdullah</t>
   </si>
   <si>
-    <t>Hazrat Abu Talib - 01</t>
+    <t>Hazrat Abu Talib</t>
   </si>
 </sst>
 </file>
@@ -1981,7 +1981,7 @@
   <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="H2" s="20">
         <f ca="1">NOW()</f>
-        <v>46067.554815509262</v>
+        <v>46068.895501851854</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2051,7 +2051,7 @@
         <v>504</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>207</v>
+        <v>503</v>
       </c>
       <c r="D3" s="18" t="s">
         <v>88</v>
@@ -2068,7 +2068,7 @@
         <v>505</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>207</v>
+        <v>503</v>
       </c>
       <c r="D4" s="18" t="s">
         <v>88</v>
@@ -2085,7 +2085,7 @@
         <v>209</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>89</v>
+        <v>504</v>
       </c>
       <c r="D5" s="18" t="s">
         <v>88</v>
@@ -2102,7 +2102,7 @@
         <v>53</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>216</v>
+        <v>505</v>
       </c>
       <c r="D6" s="18" t="s">
         <v>88</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Data 2022\00-Imran\00-Imran\Perssonal\Shajra\00-New Github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50AA8F92-475D-439B-8EA6-5245AD1471C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08C7E144-D0B7-4980-8539-52135EB4DB33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1980,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C4196B8-D149-4ECD-A392-4B507FDB8250}">
   <dimension ref="A1:I348"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.71875" defaultRowHeight="12.3" x14ac:dyDescent="0.4"/>
@@ -2040,7 +2040,7 @@
       </c>
       <c r="H2" s="20">
         <f ca="1">NOW()</f>
-        <v>46068.895501851854</v>
+        <v>46071.701875231483</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
@@ -2621,7 +2621,7 @@
         <v>4</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E36" s="14" t="s">
         <v>393</v>
@@ -4481,7 +4481,7 @@
         <v>84</v>
       </c>
       <c r="C146" s="19" t="s">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="D146" s="18" t="s">
         <v>88</v>
@@ -4498,7 +4498,7 @@
         <v>168</v>
       </c>
       <c r="C147" s="19" t="s">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="D147" s="18" t="s">
         <v>91</v>
@@ -4515,7 +4515,7 @@
         <v>169</v>
       </c>
       <c r="C148" s="19" t="s">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="D148" s="18" t="s">
         <v>91</v>
@@ -4532,7 +4532,7 @@
         <v>170</v>
       </c>
       <c r="C149" s="19" t="s">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="D149" s="18" t="s">
         <v>91</v>
@@ -6157,7 +6157,7 @@
       <c r="A246" s="18">
         <v>242</v>
       </c>
-      <c r="B246" s="19" t="s">
+      <c r="B246" s="25" t="s">
         <v>422</v>
       </c>
       <c r="C246" s="19" t="s">
@@ -6412,7 +6412,7 @@
       <c r="A261" s="18">
         <v>257</v>
       </c>
-      <c r="B261" s="25" t="s">
+      <c r="B261" s="29" t="s">
         <v>498</v>
       </c>
       <c r="C261" s="19" t="s">
